--- a/ExcelSheets/GADDS_asdep.xlsx
+++ b/ExcelSheets/GADDS_asdep.xlsx
@@ -457,31 +457,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.38144565361595</v>
+        <v>0.3814878899799231</v>
       </c>
       <c r="C2">
-        <v>37.38940060461852</v>
+        <v>37.3896297462974</v>
       </c>
       <c r="D2">
-        <v>89.32041181407058</v>
+        <v>89.39833482913293</v>
       </c>
       <c r="E2">
-        <v>0.5561539953388276</v>
+        <v>0.5575970447775476</v>
       </c>
       <c r="F2">
-        <v>2.403179467907666</v>
+        <v>2.403165266462735</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2">
-        <v>0.004918669328613639</v>
+        <v>0.004919181560215284</v>
       </c>
       <c r="I2">
-        <v>2.614530205124487</v>
+        <v>2.614545655625228</v>
       </c>
       <c r="J2">
-        <v>0.01182044513995148</v>
+        <v>0.01182160626493333</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -489,31 +489,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5947422822114231</v>
+        <v>0.5944288752500837</v>
       </c>
       <c r="C3">
-        <v>43.43374672868564</v>
+        <v>43.43236978986356</v>
       </c>
       <c r="D3">
-        <v>212.7702422877788</v>
+        <v>215.1892098759679</v>
       </c>
       <c r="E3">
-        <v>0.7139702811870806</v>
+        <v>0.7334002176991026</v>
       </c>
       <c r="F3">
-        <v>2.08172324829899</v>
+        <v>2.081786054176494</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3">
-        <v>0.006515493686139839</v>
+        <v>0.006512287900504978</v>
       </c>
       <c r="I3">
-        <v>3.018261583192521</v>
+        <v>3.018170524571541</v>
       </c>
       <c r="J3">
-        <v>0.01356345468058258</v>
+        <v>0.01355719013205358</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -521,31 +521,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5908723661371664</v>
+        <v>0.5907385426261924</v>
       </c>
       <c r="C4">
-        <v>63.10663847392193</v>
+        <v>63.10731023426045</v>
       </c>
       <c r="D4">
-        <v>151.0741997641265</v>
+        <v>150.6842052222736</v>
       </c>
       <c r="E4">
-        <v>0.7423778152022112</v>
+        <v>0.7384598070551798</v>
       </c>
       <c r="F4">
-        <v>1.471989427173827</v>
+        <v>1.471975375261692</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4">
-        <v>0.004198411348112331</v>
+        <v>0.004197405292368879</v>
       </c>
       <c r="I4">
-        <v>4.268498938367447</v>
+        <v>4.268539686720334</v>
       </c>
       <c r="J4">
-        <v>0.006180017115347964</v>
+        <v>0.00617847723036009</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -553,31 +553,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9182536971925788</v>
+        <v>0.9154810523523924</v>
       </c>
       <c r="C5">
-        <v>75.64215890788017</v>
+        <v>75.64539150884171</v>
       </c>
       <c r="D5">
-        <v>85.41772240045125</v>
+        <v>83.96832035500768</v>
       </c>
       <c r="E5">
-        <v>0.8379147719424209</v>
+        <v>0.8176711695781143</v>
       </c>
       <c r="F5">
-        <v>1.256169064822931</v>
+        <v>1.256123417552465</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5">
-        <v>0.005161403937752242</v>
+        <v>0.00514551952912774</v>
       </c>
       <c r="I5">
-        <v>5.001862793098841</v>
+        <v>5.002044559779216</v>
       </c>
       <c r="J5">
-        <v>0.00648359595765963</v>
+        <v>0.006463407576010888</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -617,31 +617,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.212565483464094</v>
+        <v>1.212047361471443</v>
       </c>
       <c r="C7">
-        <v>95.54917493485216</v>
+        <v>95.56296330859216</v>
       </c>
       <c r="D7">
-        <v>23.09764689863666</v>
+        <v>23.87247183840709</v>
       </c>
       <c r="E7">
-        <v>0.8750337689973404</v>
+        <v>0.9233900256454197</v>
       </c>
       <c r="F7">
-        <v>1.040206807944343</v>
+        <v>1.040093234716727</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7">
-        <v>0.00480169585539413</v>
+        <v>0.004798483761142886</v>
       </c>
       <c r="I7">
-        <v>6.040323192650913</v>
+        <v>6.040982767175514</v>
       </c>
       <c r="J7">
-        <v>0.004994756718459109</v>
+        <v>0.004990870496862792</v>
       </c>
     </row>
   </sheetData>
@@ -691,31 +691,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.311574042773495</v>
+        <v>0.3115077022647585</v>
       </c>
       <c r="C2">
-        <v>37.38937546414191</v>
+        <v>37.38960456777738</v>
       </c>
       <c r="D2">
-        <v>89.67534086311512</v>
+        <v>89.75273838366958</v>
       </c>
       <c r="E2">
-        <v>0.615488247220878</v>
+        <v>0.6174973993713272</v>
       </c>
       <c r="F2">
-        <v>2.403179467907666</v>
+        <v>2.403165266462735</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2">
-        <v>0.004017691067291864</v>
+        <v>0.0040168091676088</v>
       </c>
       <c r="I2">
-        <v>2.614528509958857</v>
+        <v>2.614543957895565</v>
       </c>
       <c r="J2">
-        <v>0.009655232681311845</v>
+        <v>0.009653056273606556</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -723,31 +723,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5351166087914939</v>
+        <v>0.5335179684653993</v>
       </c>
       <c r="C3">
-        <v>43.43364944615713</v>
+        <v>43.43227095435691</v>
       </c>
       <c r="D3">
-        <v>209.657754480924</v>
+        <v>211.921900884915</v>
       </c>
       <c r="E3">
-        <v>0.7341764592444978</v>
+        <v>0.7571127967991345</v>
       </c>
       <c r="F3">
-        <v>2.08172324829899</v>
+        <v>2.081786054176494</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3">
-        <v>0.00586229968958762</v>
+        <v>0.005844990835935857</v>
       </c>
       <c r="I3">
-        <v>3.018255149796172</v>
+        <v>3.018163988443809</v>
       </c>
       <c r="J3">
-        <v>0.0122036855523105</v>
+        <v>0.01216802040904067</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -755,31 +755,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5051202252035651</v>
+        <v>0.5053792290633671</v>
       </c>
       <c r="C4">
-        <v>63.10649643427239</v>
+        <v>63.10716870224398</v>
       </c>
       <c r="D4">
-        <v>149.3423843314298</v>
+        <v>148.9771478109207</v>
       </c>
       <c r="E4">
-        <v>0.7976286412913494</v>
+        <v>0.79269473077834</v>
       </c>
       <c r="F4">
-        <v>1.471989427173827</v>
+        <v>1.471975375261692</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4">
-        <v>0.003589114167601088</v>
+        <v>0.00359090726785086</v>
       </c>
       <c r="I4">
-        <v>4.268490322356569</v>
+        <v>4.268531101532988</v>
       </c>
       <c r="J4">
-        <v>0.005283138107628593</v>
+        <v>0.005285727073124705</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -787,31 +787,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8345550080584659</v>
+        <v>0.83355432298119</v>
       </c>
       <c r="C5">
-        <v>75.64163728631831</v>
+        <v>75.64488213120592</v>
       </c>
       <c r="D5">
-        <v>83.19854772509237</v>
+        <v>81.86605919839991</v>
       </c>
       <c r="E5">
-        <v>0.8651515332241887</v>
+        <v>0.8421659134262701</v>
       </c>
       <c r="F5">
-        <v>1.256169064822931</v>
+        <v>1.256123417552465</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5">
-        <v>0.004690986813266429</v>
+        <v>0.004685088125755495</v>
       </c>
       <c r="I5">
-        <v>5.001833462344283</v>
+        <v>5.002015918128431</v>
       </c>
       <c r="J5">
-        <v>0.005892672518317594</v>
+        <v>0.005885048908058466</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -851,31 +851,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.106802344396822</v>
+        <v>1.099782716704137</v>
       </c>
       <c r="C7">
-        <v>95.54782625374736</v>
+        <v>95.56156254731634</v>
       </c>
       <c r="D7">
-        <v>22.37555312320682</v>
+        <v>23.06876200740877</v>
       </c>
       <c r="E7">
-        <v>0.9029515814789976</v>
+        <v>0.9581646825895381</v>
       </c>
       <c r="F7">
-        <v>1.040206807944343</v>
+        <v>1.040093234716727</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7">
-        <v>0.004382983014905521</v>
+        <v>0.004354136071932099</v>
       </c>
       <c r="I7">
-        <v>6.04025867304477</v>
+        <v>6.040915764972248</v>
       </c>
       <c r="J7">
-        <v>0.004559208771209144</v>
+        <v>0.004528707471452642</v>
       </c>
     </row>
   </sheetData>
